--- a/topic_split/topic_17.xlsx
+++ b/topic_split/topic_17.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>issue</t>
   </si>
@@ -22,41 +22,76 @@
     <t>topic</t>
   </si>
   <si>
-    <t>confidence_score</t>
+    <t xml:space="preserve">DREF Imminent returns!
+We are ready to re-start the work, below you will find all the fields currently used in the DREF Imminent Application and how they map out to the new form:
+**General Observations**
+- [x] Tittle on the Export must be "Imminent DREF operation" instead of "DREF Operation"
+**Operation Overview**
+- [x] Emergency appeal planned: Hide this field
+- [x] Upload map: Hide this field
+- [x] Type of Onset: Let's keep this field but it should default to "Sudden", no option to be changed
+- [x] Disaster Category: Hide this field
+- [x] If available please upload Crisis categorization Analysis: Hide this field
+**Event Detail** ---&gt; Replace name with "Scenario Analysis"
+- [x] Previous Operations: Hide the whole section
+- [x] Description of the Event: Hide the whole section, only Total people at risk and Sources of information will remain visible
+- [x] Add new question: When and where is the hazard expected to happen? : Guidance: Narrative including Date and geographical areas
+- [x] Add new question: Explain the underlying vulnerabilities and risks the hazard poses for at-risk communities?  : Text. Guidance: Based on comparison of past events, what humanitarian impacts do you expect? Of what magnitude? (e.g. last time there was a cyclone making landfall with this windspeed, XX houses were destroyed, and we had to launch a DREF/emergency appeal for CHF xxx) 
+- [x] Add new space to attach documents: Upload any additional support document (Optional)
+**Action/Needs** ---&gt; Hide the whole section
+**Operation**
+- [x] Hide the whole section, only "Total Targeted Population" section and "Will surge personnel be deployed?" will remain visible.
+- [x] Add new space to attach documents: "If the National Society has developed contingency plans, or recently carried out PER assessment or readiness check for instance, kindly attached those documents here"
+- [x] Add new question: Which of the expected severe humanitarian impacts of the hazard are your actions addressing? Why were these impacts chosen? --&gt; Guidance: Prioritized impact of the foreseen disaster
+- [x] Add new section: "Proposed actions", this section will be similar to "planned interventions" in the other forms, but the grouping wont be by sector (Shelter, Health, etc) but by type of intervention, there will be only two boxes, "Early Actions" and "Early Response", with Activities (we want to find a way to "tag" each one of the activities with sectors) and budget, some extra rows at the end, please see picture attached below (please note that the sub-total should be a sum of the budgets, it should ALWAYS total 75k, so we can add some logic and a warning if it is not matching)
+![Image](https://github.com/user-attachments/assets/ad3b2e8c-a6f3-42d6-b653-71ac0406ceea)
+**Operational Timeframes and Contacts**---&gt; Stays the same, only hide the Glide number
+@tovari @udaynwa @marcovvu1 
+</t>
   </si>
   <si>
-    <t>[7.65904601e-308 1.81581587e-308 2.69607692e-308 1.76735504e-308
- 4.75121143e-308 1.49001024e-307 5.63857031e-308 7.45919681e-308
- 3.24087808e-308 4.60870886e-308 6.65683342e-308 3.03317854e-308
- 4.39079929e-308 2.21202569e-308 7.06542985e-308 5.29532588e-308
- 1.00000000e+000 6.87760718e-308 6.29474803e-308 5.64698062e-308
- 3.60914780e-308 1.85084416e-307 5.52747897e-308 5.26561996e-308
- 3.98634423e-308]</t>
+    <t xml:space="preserve">Rename and hide sections/fields in Dref Application Form
+### Rename
+**Event Detail** ---&gt; Replace name with "Scenario Analysis"
+### Hide the following Section
+**Operation Overview**
+- [x] Emergency appeal planned: Hide this field
+- [x] Upload map: Hide this field
+- [x] Type of Onset: Let's keep this field but it should default to "Sudden", no option to be changed
+- [x] Disaster Category: Hide this field
+- [x] If available please upload Crisis categorization Analysis: Hide this field
+**Event Detail**
+- [x] Previous Operations: Hide the whole section
+- [x] Description of the Event: Hide the whole section, only Total people at risk and Sources of information will remain visible
+**Action/Needs** ---&gt; Hide the whole section
+**Operation**
+- [x] Hide the whole section, only "Total Targeted Population" section and "Will surge personnel be deployed?" will remain visible.
+**Operational Timeframes and Contacts**---&gt; Stays the same, only hide the Glide number
+</t>
   </si>
   <si>
-    <t>[0.02455613 0.00659616 0.00983598 0.00642535 0.01692019 0.05553982
- 0.02168304 0.02935094 0.01192414 0.01626356 0.0251468  0.01103096
- 0.01661885 0.00808682 0.02814812 0.01854254 0.24673932 0.02699923
- 0.02253868 0.02048096 0.01337495 0.05950929 0.02108104 0.01878768
- 0.01457662]</t>
+    <t>Add new Section in Dref Application Form
+Add new form fields/questions/space in DREF Application form when type is Imminent Changes
+### Event Detail (Scenario Analysis)
+- [x] Add new question: When and where is the hazard expected to happen? : Guidance: Narrative including Date and geographical areas
+- [x] Add new question: Explain the underlying vulnerabilities and risks the hazard poses for at-risk communities? : Text. Guidance: Based on comparison of past events, what humanitarian impacts do you expect? Of what magnitude? (e.g. last time there was a cyclone making landfall with this windspeed, XX houses were destroyed, and we had to launch a DREF/emergency appeal for CHF xxx)
+- [x] Add new space to attach documents: Upload any additional support document (Optional)
+### Operation (Plan)
+- [x] Add new space to attach documents: "If the National Society has developed contingency plans, or recently carried out PER assessment or readiness check for instance, kindly attached those documents here"
+- [x] Add new question: Which of the expected severe humanitarian impacts of the hazard are your actions addressing? Why were these impacts chosen? --&gt; Guidance: Prioritized impact of the foreseen disaster</t>
   </si>
   <si>
-    <t>[7.43731795e-308 1.79238863e-308 2.72789333e-308 1.74401685e-308
- 5.00653773e-308 1.63139893e-307 5.52851575e-308 7.57970643e-308
- 3.27295620e-308 4.56427990e-308 6.80337719e-308 3.07677287e-308
- 4.35892103e-308 2.17999905e-308 6.88128373e-308 5.30649324e-308
- 1.00000000e+000 6.59960387e-308 6.36826192e-308 5.58214841e-308
- 3.64728511e-308 1.84183347e-307 5.60275988e-308 5.15652348e-308
- 4.02418081e-308]</t>
-  </si>
-  <si>
-    <t>[8.40321833e-308 1.78496609e-308 2.64600613e-308 1.73498280e-308
- 4.74477487e-308 1.33457723e-307 5.26481357e-308 6.78467548e-308
- 3.15765975e-308 4.70879129e-308 6.32721753e-308 2.99237188e-308
- 4.16986391e-308 2.16365260e-308 6.35037568e-308 5.47593717e-308
- 1.00000000e+000 6.22365476e-308 6.38332787e-308 5.65438832e-308
- 3.49271943e-308 2.05974006e-307 5.20911399e-308 5.31055840e-308
- 3.92738137e-308]</t>
+    <t xml:space="preserve">ERU Readiness Form
+### Feature Description
+Add an ERU Readiness Form:
+- [ ] National Society Select Input
+- [ ] ERU Type Select Input
+- [ ] In each ERU Type : Equipment Readiness: Select one option from Ready, Can contribute capacity and No capacity.
+People Readiness: Select one option from Ready, Can contribute capacity and No capacity.
+Funding Readiness: Select one option from Ready, Can contribute capacity and No capacity
+### Additional Context
+![Image](https://github.com/user-attachments/assets/4b7aa1a0-5cc7-428a-ab8b-cbd75256b58c)
+</t>
   </si>
 </sst>
 </file>
@@ -414,65 +449,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>66</v>
       </c>
       <c r="B2">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>70</v>
       </c>
       <c r="B3">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>81</v>
       </c>
       <c r="B4">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>84</v>
       </c>
       <c r="B5">
         <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
